--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value596.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value596.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.144059630220074</v>
+        <v>1.072934746742249</v>
       </c>
       <c r="B1">
-        <v>1.272695080478214</v>
+        <v>1.734713196754456</v>
       </c>
       <c r="C1">
-        <v>1.219243090287917</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.331244066059995</v>
+        <v>1.91253650188446</v>
       </c>
       <c r="E1">
-        <v>1.640821256276444</v>
+        <v>1.156595826148987</v>
       </c>
     </row>
   </sheetData>
